--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_86.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_86.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7774</v>
+        <v>2.6961</v>
       </c>
       <c r="J3" t="n">
-        <v>2.89</v>
+        <v>28.27</v>
       </c>
       <c r="K3" t="n">
-        <v>143.97</v>
+        <v>1368.53</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.13</v>
+        <v>3.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1350.892</v>
+        <v>1387.0845</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4739</v>
+        <v>2.4499</v>
       </c>
       <c r="J4" t="n">
-        <v>24.73</v>
+        <v>1.75</v>
       </c>
       <c r="K4" t="n">
-        <v>1098.33</v>
+        <v>76.97</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>2.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1178.8025</v>
+        <v>1223.5515</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>13.0274</v>
+        <v>12.326</v>
       </c>
       <c r="J5" t="n">
-        <v>27.63</v>
+        <v>27.25</v>
       </c>
       <c r="K5" t="n">
-        <v>6462.46</v>
+        <v>6029.51</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.75</v>
+        <v>11.95</v>
       </c>
       <c r="R5" t="n">
-        <v>5542.3674</v>
+        <v>5219.6687</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>15.545</v>
+        <v>14.6778</v>
       </c>
       <c r="J6" t="n">
-        <v>29.14</v>
+        <v>27.89</v>
       </c>
       <c r="K6" t="n">
-        <v>8132.4</v>
+        <v>7350.35</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>7.3</v>
+        <v>9.91</v>
       </c>
       <c r="R6" t="n">
-        <v>4625.0102</v>
+        <v>4330.8593</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5698</v>
+        <v>6.3333</v>
       </c>
       <c r="J7" t="n">
-        <v>33.15</v>
+        <v>33.11</v>
       </c>
       <c r="K7" t="n">
-        <v>3909.96</v>
+        <v>3764.35</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.97</v>
+        <v>6.88</v>
       </c>
       <c r="R7" t="n">
-        <v>3145.2782</v>
+        <v>3006.6106</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>80.1973</v>
+        <v>76.1741</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4.34</v>
       </c>
       <c r="K8" t="n">
-        <v>6624.96</v>
+        <v>5932.6</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>10.18</v>
+        <v>13.29</v>
       </c>
       <c r="R8" t="n">
-        <v>6450.1656</v>
+        <v>5807.6827</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I9" t="n">
-        <v>18.2341</v>
+        <v>17.3967</v>
       </c>
       <c r="J9" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>647.34</v>
+        <v>563.45</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>508.4639</v>
+        <v>435.6226</v>
       </c>
     </row>
   </sheetData>
